--- a/results/MVSE/dblp/MVSE_dblp<l03><WL>91.25.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l03><WL>91.25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,75 +446,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>train_mode</t>
+          <t>dataset</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dataset</t>
+          <t>exp_name</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>exp_name</t>
+          <t>batch_size</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>batch_size</t>
+          <t>p_epoch</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>p_epoch</t>
+          <t>f_epoch</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>f_epoch</t>
+          <t>ge_mode</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ge_mode</t>
+          <t>cl_mode</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>cl_mode</t>
+          <t>nce_k</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>nce_k</t>
+          <t>seed</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>seed</t>
+          <t>avg_loss</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>avg_loss</t>
+          <t>avg_test_mif1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>avg_test_mif1</t>
+          <t>std_loss</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>std_loss</t>
+          <t>std_test_mif1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>std_test_mif1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>config2str</t>
         </is>
@@ -534,63 +529,62 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dblp</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>NCEK</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>128</v>
+      </c>
       <c r="G2" t="n">
-        <v>128</v>
+        <v>500</v>
       </c>
       <c r="H2" t="n">
-        <v>500</v>
-      </c>
-      <c r="I2" t="n">
         <v>50</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>WL_0_0_1</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>4096</v>
+      </c>
       <c r="L2" t="n">
-        <v>4096</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0.35</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>91.25</v>
       </c>
       <c r="O2" t="n">
-        <v>91.25</v>
+        <v>0.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_38_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        <v>0.43</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_13_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -604,203 +598,54 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>moco</t>
+          <t>dblp</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dblp</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" t="n">
         <v>50</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>WL_0_0_1</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>4096</v>
+      </c>
       <c r="L3" t="n">
-        <v>4096</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0.36</v>
       </c>
       <c r="N3" t="n">
-        <v>0.31</v>
+        <v>89.75</v>
       </c>
       <c r="O3" t="n">
-        <v>91.23</v>
+        <v>0.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_59_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>dblp</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>128</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>4096</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O4" t="n">
-        <v>89.75</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_09_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dblp</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>128</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>4096</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O5" t="n">
-        <v>86.16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_33_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        <v>0.58</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-11_43_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>

--- a/results/MVSE/dblp/MVSE_dblp<l03><WL>91.25.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l03><WL>91.25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,14 +603,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -632,20 +632,221 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
       <c r="N3" t="n">
-        <v>89.75</v>
+        <v>91.23</v>
       </c>
       <c r="O3" t="n">
         <v>0.02</v>
       </c>
       <c r="P3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_10_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>128</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N4" t="n">
+        <v>90.78</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_38_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>128</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.58</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-11_43_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>128</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>4096</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N6" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_42_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
